--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_295__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_295__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,37 +5417,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.9992023706436157</c:v>
+                  <c:v>-0.9992042183876038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.123845286667347</c:v>
+                  <c:v>0.1238471493124962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.39049911499023</c:v>
+                  <c:v>49.39049530029297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.05634307861328</c:v>
+                  <c:v>49.05633926391602</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>51.49231338500977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.12472534179688</c:v>
+                  <c:v>46.12472915649414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.06565970927476883</c:v>
+                  <c:v>-0.06566343456506729</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.1926937997341156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3444160223007202</c:v>
+                  <c:v>0.3444122970104218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.503214359283447</c:v>
+                  <c:v>2.503210544586182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.219016075134277</c:v>
+                  <c:v>5.219014167785645</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>51.86358261108398</c:v>
@@ -5459,10 +5459,10 @@
                   <c:v>0.7503220438957214</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.89644241333008</c:v>
+                  <c:v>49.89644622802734</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.354335784912109</c:v>
+                  <c:v>5.354337215423584</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.21058201789856</c:v>
@@ -5471,49 +5471,49 @@
                   <c:v>49.03203964233398</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.55204176902771</c:v>
+                  <c:v>1.552038073539734</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-1.233652830123901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.594692707061768</c:v>
+                  <c:v>3.5946946144104</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.4302640855312347</c:v>
+                  <c:v>0.4302678108215332</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>48.49746322631836</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.4058911204338074</c:v>
+                  <c:v>0.4058929681777954</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1228084564208984</c:v>
+                  <c:v>0.1228103190660477</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.09940517693758011</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.05656319856643677</c:v>
+                  <c:v>0.05655946955084801</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>48.72911834716797</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.953763246536255</c:v>
+                  <c:v>1.953766942024231</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51.22280502319336</c:v>
+                  <c:v>51.22280883789062</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5170277953147888</c:v>
+                  <c:v>0.5170314908027649</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.3989689648151398</c:v>
+                  <c:v>0.3989671170711517</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.13979148864746</c:v>
+                  <c:v>19.13978958129883</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.2702957093715668</c:v>
@@ -5522,7 +5522,7 @@
                   <c:v>0.6457290053367615</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>49.34496688842773</c:v>
+                  <c:v>49.344970703125</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-0.5798678994178772</c:v>
@@ -5534,7 +5534,7 @@
                   <c:v>54.01820373535156</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1957781910896301</c:v>
+                  <c:v>0.1957856416702271</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44.27890777587891</c:v>
@@ -5543,16 +5543,16 @@
                   <c:v>0.5988329648971558</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.04531097784638405</c:v>
+                  <c:v>-0.04530911520123482</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.4624412655830383</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.264159202575684</c:v>
+                  <c:v>1.264157295227051</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.6347714066505432</c:v>
+                  <c:v>0.6347695589065552</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>27.16568946838379</c:v>
@@ -5564,28 +5564,28 @@
                   <c:v>50.1143913269043</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1610406339168549</c:v>
+                  <c:v>0.1610369086265564</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2541819512844086</c:v>
+                  <c:v>0.2541782259941101</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.155998706817627</c:v>
+                  <c:v>1.15600061416626</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.3199815154075623</c:v>
+                  <c:v>0.3199796378612518</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0.4964571297168732</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2317838072776794</c:v>
+                  <c:v>0.2317856699228287</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2447162121534348</c:v>
+                  <c:v>0.2447143495082855</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.4981130659580231</c:v>
+                  <c:v>0.498111218214035</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.2537810206413269</c:v>
@@ -5597,7 +5597,7 @@
                   <c:v>0.4367479979991913</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.5197727680206299</c:v>
+                  <c:v>-0.5197709202766418</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.2705511748790741</c:v>
@@ -5606,22 +5606,22 @@
                   <c:v>-0.02765875495970249</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.423748970031738</c:v>
+                  <c:v>1.423747062683105</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.686942994594574</c:v>
+                  <c:v>-0.6869411468505859</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.2565577030181885</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1745530068874359</c:v>
+                  <c:v>0.1745548695325851</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>50.44905853271484</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1779245585203171</c:v>
+                  <c:v>0.1779208332300186</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0.9379622340202332</c:v>
@@ -5642,7 +5642,7 @@
                   <c:v>45.42170333862305</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.01891469582915306</c:v>
+                  <c:v>0.01891282945871353</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>41.32512664794922</c:v>
@@ -5651,7 +5651,7 @@
                   <c:v>0.4595097899436951</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.4829820692539215</c:v>
+                  <c:v>0.4829839169979095</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>1.481919646263123</c:v>
@@ -5663,22 +5663,22 @@
                   <c:v>2.824806928634644</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.6505569815635681</c:v>
+                  <c:v>0.6505588293075562</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.5103312730789185</c:v>
+                  <c:v>0.5103368759155273</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-0.09131939709186554</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43.19160079956055</c:v>
+                  <c:v>43.19159698486328</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.05691751092672348</c:v>
+                  <c:v>0.05691378191113472</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.2104952186346054</c:v>
+                  <c:v>0.2104914784431458</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>0.1102210357785225</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.9992023706436157</v>
+        <v>-0.9992042183876038</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.123845286667347</v>
+        <v>0.1238471493124962</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6443,7 +6443,7 @@
         <v>48.4769</v>
       </c>
       <c r="F4">
-        <v>49.39049911499023</v>
+        <v>49.39049530029297</v>
       </c>
       <c r="G4">
         <v>72</v>
@@ -6475,7 +6475,7 @@
         <v>46.4901</v>
       </c>
       <c r="F5">
-        <v>49.05634307861328</v>
+        <v>49.05633926391602</v>
       </c>
       <c r="G5">
         <v>72</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>46.12472534179688</v>
+        <v>46.12472915649414</v>
       </c>
       <c r="G7">
         <v>72</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.06565970927476883</v>
+        <v>-0.06566343456506729</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3444160223007202</v>
+        <v>0.3444122970104218</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.503214359283447</v>
+        <v>2.503210544586182</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.219016075134277</v>
+        <v>5.219014167785645</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>48.8989</v>
       </c>
       <c r="F16">
-        <v>49.89644241333008</v>
+        <v>49.89644622802734</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>5.354335784912109</v>
+        <v>5.354337215423584</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.55204176902771</v>
+        <v>1.552038073539734</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>3.594692707061768</v>
+        <v>3.5946946144104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4302640855312347</v>
+        <v>0.4302678108215332</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4058911204338074</v>
+        <v>0.4058929681777954</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.1228084564208984</v>
+        <v>0.1228103190660477</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.05656319856643677</v>
+        <v>0.05655946955084801</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.953763246536255</v>
+        <v>1.953766942024231</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>52.8303</v>
       </c>
       <c r="F31">
-        <v>51.22280502319336</v>
+        <v>51.22280883789062</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.5170277953147888</v>
+        <v>0.5170314908027649</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.3989689648151398</v>
+        <v>0.3989671170711517</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>19.13979148864746</v>
+        <v>19.13978958129883</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>48.8804</v>
       </c>
       <c r="F37">
-        <v>49.34496688842773</v>
+        <v>49.344970703125</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.1957781910896301</v>
+        <v>0.1957856416702271</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.04531097784638405</v>
+        <v>-0.04530911520123482</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.264159202575684</v>
+        <v>1.264157295227051</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.6347714066505432</v>
+        <v>0.6347695589065552</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.1610406339168549</v>
+        <v>0.1610369086265564</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.2541819512844086</v>
+        <v>0.2541782259941101</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.155998706817627</v>
+        <v>1.15600061416626</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.3199815154075623</v>
+        <v>0.3199796378612518</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.2317838072776794</v>
+        <v>0.2317856699228287</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.2447162121534348</v>
+        <v>0.2447143495082855</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.4981130659580231</v>
+        <v>0.498111218214035</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.5197727680206299</v>
+        <v>-0.5197709202766418</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.423748970031738</v>
+        <v>1.423747062683105</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-0.686942994594574</v>
+        <v>-0.6869411468505859</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.1745530068874359</v>
+        <v>0.1745548695325851</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.1779245585203171</v>
+        <v>0.1779208332300186</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.01891469582915306</v>
+        <v>0.01891282945871353</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.4829820692539215</v>
+        <v>0.4829839169979095</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.6505569815635681</v>
+        <v>0.6505588293075562</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.5103312730789185</v>
+        <v>0.5103368759155273</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>43.19160079956055</v>
+        <v>43.19159698486328</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.05691751092672348</v>
+        <v>0.05691378191113472</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.2104952186346054</v>
+        <v>0.2104914784431458</v>
       </c>
     </row>
     <row r="90" spans="1:6">
